--- a/firstecxel.xlsx
+++ b/firstecxel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\git project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CEB867-585D-4431-A99F-BC529D46FBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF71A98F-FAB0-4310-B4F7-EDEA4A7D0F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>glerhgireh</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>nvkrgi</t>
+  </si>
+  <si>
+    <t>wnroinwrin</t>
+  </si>
+  <si>
+    <t>ierhgioerhg</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -384,6 +393,19 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
